--- a/public/preprocessing/@HabibluthfiYahy.xlsx
+++ b/public/preprocessing/@HabibluthfiYahy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14550</v>
+        <v>29255</v>
       </c>
       <c r="C2" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,15 +497,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['selamat', 'ulang', 'tahun', 'mamah', 'syarifah', 'salmah', 'panjang', 'umur', 'sehat', 'dan', 'terus', 'mendapingi', 'maulana', 'habib', 'luthfi', 'bin', 'yahya']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>['selamat', 'ulang', 'mamah', 'syarifah', 'salmah', 'umur', 'sehat', 'mendapingi', 'maulana', 'habib', 'luthfi', 'bin', 'yahya']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['selamat', 'ulang', 'mamah', 'syarifah', 'salmah', 'umur', 'sehat', 'mendapingi', 'maulana', 'habib', 'luthfi', 'bin', 'yahya']</t>
         </is>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14551</v>
+        <v>29256</v>
       </c>
       <c r="C3" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,17 +538,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['rt', 'nashir', 'habib', 'bahauddin', 'bin', 'luthfi', 'bin', 'ali', 'bin', 'hasyim', 'bin', 'yahya', 'membaiat', 'habib', 'husein', 'bin', 'luthfi', 'bin', 'ali', 'bin', 'hasyim', 'bin', 'yahya', 'punya']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 24 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['nashir', 'habib', 'bahauddin', 'bin', 'luthfi', 'bin', 'ali', 'bin', 'hasyim', 'bin', 'yahya', 'membaiat', 'habib', 'husein', 'bin', 'luthfi', 'bin', 'ali', 'bin', 'hasyim', 'bin', 'yahya', 'pu']</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['nashir', 'habib', 'bahauddin', 'bin', 'luthfi', 'bin', 'ali', 'bin', 'hasyim', 'bin', 'yahya', 'baiat', 'habib', 'husein', 'bin', 'luthfi', 'bin', 'ali', 'bin', 'hasyim', 'bin', 'yahya', 'pu']</t>
+          <t>['nashir', 'habib', 'bahauddin', 'bin', 'luthfi', 'bin', 'ali', 'bin', 'hasyim', 'bin', 'yahya', 'membaiat', 'habib', 'husein', 'bin', 'luthfi', 'bin', 'ali', 'bin', 'hasyim', 'bin', 'yahya']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['nashir', 'habib', 'bahauddin', 'bin', 'luthfi', 'bin', 'ali', 'bin', 'hasyim', 'bin', 'yahya', 'baiat', 'habib', 'husein', 'bin', 'luthfi', 'bin', 'ali', 'bin', 'hasyim', 'bin', 'yahya']</t>
         </is>
       </c>
     </row>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14552</v>
+        <v>29257</v>
       </c>
       <c r="C4" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,15 +579,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['rt', 'selamat', 'atas', 'dilantiknya', 'maulana', 'habib', 'lutfi', 'bin', 'ali', 'bin', 'yahya', 'sebagai', 'dewan', 'pertimbangan', 'presiden', 'republik', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>['selamat', 'dilantiknya', 'maulana', 'habib', 'lutfi', 'bin', 'ali', 'bin', 'yahya', 'dewan', 'pertimbangan', 'presiden', 'republik', 'indonesia']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['selamat', 'lantik', 'maulana', 'habib', 'lutfi', 'bin', 'ali', 'bin', 'yahya', 'dewan', 'timbang', 'presiden', 'republik', 'indonesia']</t>
         </is>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14553</v>
+        <v>29258</v>
       </c>
       <c r="C5" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,17 +620,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['rt', 'hijau', 'selamat', 'atas', 'dilantiknya', 'maulana', 'habib', 'luthfi', 'bin', 'yahya', 'sebagai', 'dewan', 'pertimbangan', 'presiden', 'dewan, pertimbangan, presiden']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['hijau', 'selamat', 'dilantiknya', 'maulana', 'habib', 'luthfi', 'bin', 'yahya', 'dewan', 'pertimbangan', 'presiden', 'wantimpres']</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['hijau', 'selamat', 'lantik', 'maulana', 'habib', 'luthfi', 'bin', 'yahya', 'dewan', 'timbang', 'presiden', 'wantimpres']</t>
+          <t>['hijau', 'selamat', 'dilantiknya', 'maulana', 'habib', 'luthfi', 'bin', 'yahya', 'dewan', 'pertimbangan', 'presiden', 'dewan, pertimbangan, presiden']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['hijau', 'selamat', 'lantik', 'maulana', 'habib', 'luthfi', 'bin', 'yahya', 'dewan', 'timbang', 'presiden', 'dewan timbang presiden']</t>
         </is>
       </c>
     </row>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14554</v>
+        <v>29259</v>
       </c>
       <c r="C6" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,17 +661,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['rt', 'utriza', 'selamat', 'ya', 'mawln', 'ayah', 'ya', 'qutbal', 'awliy', 'menjadi', 'dewan, pertimbangan, presiden', 'semoga', 'ayah', 'bisa', 'mendorong', 'pak', 'untuk']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['utriza', 'selamat', 'mawln', 'abah', 'qutbal', 'awliy', 'wantimpres', 'semoga', 'abah', 'mendorong', 'unt']</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['utriza', 'selamat', 'mawln', 'abah', 'qutbal', 'awliy', 'wantimpres', 'moga', 'abah', 'dorong', 'unt']</t>
+          <t>['utriza', 'selamat', 'mawln', 'ayah', 'qutbal', 'awliy', 'dewan, pertimbangan, presiden', 'semoga', 'ayah', 'mendorong']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['utriza', 'selamat', 'mawln', 'ayah', 'qutbal', 'awliy', 'dewan timbang presiden', 'moga', 'ayah', 'dorong']</t>
         </is>
       </c>
     </row>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14555</v>
+        <v>29260</v>
       </c>
       <c r="C7" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,17 +702,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['rt', 'radja', 'tokoh', 'sekaligus', 'ulama', 'nu', 'habib', 'lutfi', 'sebagai', 'dewan', 'penasihat', 'presiden', 'jangan', 'lupa', 'tumpas']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['radja', 'tokoh', 'ulama', 'nu', 'habib', 'lutfi', 'dewan', 'penasehat', 'presiden', 'lupa', 'tumpas']</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['radja', 'tokoh', 'ulama', 'nu', 'habib', 'lutfi', 'dewan', 'nasehat', 'presiden', 'lupa', 'tumpas']</t>
+          <t>['radja', 'tokoh', 'ulama', 'nu', 'habib', 'lutfi', 'dewan', 'penasihat', 'presiden', 'lupa', 'tumpas']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['radja', 'tokoh', 'ulama', 'nu', 'habib', 'lutfi', 'dewan', 'nasihat', 'presiden', 'lupa', 'tumpas']</t>
         </is>
       </c>
     </row>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14556</v>
+        <v>29261</v>
       </c>
       <c r="C8" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,17 +743,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'kepada', 'guru', 'kita', 'tercinta', 'maulana', 'yang', 'hari', 'ini', 'diangkat', 'sebagai', 'anggota', 'dewan, pertimbangan, presiden', 'kebanggaan', 'yang']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['selamat', 'guru', 'tercinta', 'maulana', 'diangkat', 'anggota', 'wantimpres', 'kebanggaan']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['selamat', 'guru', 'cinta', 'maulana', 'angkat', 'anggota', 'wantimpres', 'bangga']</t>
+          <t>['selamat', 'guru', 'tercinta', 'maulana', 'diangkat', 'anggota', 'dewan, pertimbangan, presiden', 'kebanggaan']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['selamat', 'guru', 'cinta', 'maulana', 'angkat', 'anggota', 'dewan timbang presiden', 'bangga']</t>
         </is>
       </c>
     </row>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14557</v>
+        <v>29262</v>
       </c>
       <c r="C9" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,15 +784,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['menjelang', 'pelantikan', 'anggota', 'dewan', 'pertimbangan', 'presiden', 'jakarta', 'desember']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>['menjelang', 'pelantikan', 'anggota', 'dewan', 'pertimbangan', 'presiden', 'jakarta', 'desember']</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['jelang', 'lantik', 'anggota', 'dewan', 'timbang', 'presiden', 'jakarta', 'desember']</t>
         </is>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14558</v>
+        <v>29263</v>
       </c>
       <c r="C10" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,15 +825,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['pelantikan', 'watimpres', 'jakarta', 'desember']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>['pelantikan', 'watimpres', 'jakarta', 'desember']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['lantik', 'watimpres', 'jakarta', 'desember']</t>
         </is>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14559</v>
+        <v>29264</v>
       </c>
       <c r="C11" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -812,15 +862,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -831,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14560</v>
+        <v>29265</v>
       </c>
       <c r="C12" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -848,15 +903,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['desember']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>['desember']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['desember']</t>
         </is>
@@ -867,10 +927,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14561</v>
+        <v>29266</v>
       </c>
       <c r="C13" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -884,15 +944,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['bertemu', 'nabi', 'muhammad', 'lebih', 'mudah', 'daripada', 'bertemu', 'para', 'wali']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>['bertemu', 'nabi', 'muhammad', 'mudah', 'bertemu', 'wali']</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>['temu', 'nabi', 'muhammad', 'mudah', 'temu', 'wali']</t>
         </is>
@@ -903,10 +968,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14562</v>
+        <v>29267</v>
       </c>
       <c r="C14" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -920,15 +985,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['rt', 'alhamdulillah', 'bersyukur', 'dapat', 'menghadiri', 'peringatan', 'maulid', 'nabi', 'muhammad', 'saw', 'bersama', 'jamaah', 'kanzus', 'sholawat', 'di', 'pekalong']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'bersyukur', 'menghadiri', 'peringatan', 'maulid', 'nabi', 'muhammad', 'saw', 'jamaah', 'kanzus', 'sholawat', 'pekalong']</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'syukur', 'hadir', 'ingat', 'maulid', 'nabi', 'muhammad', 'saw', 'jamaah', 'kanzus', 'sholawat', 'kalong']</t>
         </is>
@@ -939,10 +1009,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14563</v>
+        <v>29268</v>
       </c>
       <c r="C15" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -956,15 +1026,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['hadir', 'desember', 'di', 'kanzus', 'sholawat', 'kota', 'pekalongan']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>['hadir', 'desember', 'kanzus', 'sholawat', 'kota', 'pekalongan']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['hadir', 'desember', 'kanzus', 'sholawat', 'kota', 'kalong']</t>
         </is>
@@ -975,10 +1050,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14564</v>
+        <v>29269</v>
       </c>
       <c r="C16" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -992,15 +1067,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['pagelaran', 'wayang', 'kulit', 'kebangsaan', 'dengan', 'judul', 'pari', 'kesit', 'hamanditho', 'habib', 'luthfi', 'menyampaikan', 'dalam', 'wayang', 'terk']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>['pagelaran', 'wayang', 'kulit', 'kebangsaan', 'judul', 'pari', 'kesit', 'hamanditho', 'habib', 'luthfi', 'wayang', 'terk']</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['pagelaran', 'wayang', 'kulit', 'bangsa', 'judul', 'pari', 'sit', 'hamanditho', 'habib', 'luthfi', 'wayang', 'terk']</t>
         </is>
@@ -1011,10 +1091,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14565</v>
+        <v>29270</v>
       </c>
       <c r="C17" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1028,15 +1108,20 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['pagelaran', 'wayang', 'kulit', 'di', 'kanzus', 'sholawat', 'tadi', 'malam', 'november', 'rangkaian', 'maulid', 'akbar', 'kanzus', 'sholawat']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>['pagelaran', 'wayang', 'kulit', 'kanzus', 'sholawat', 'malam', 'november', 'rangkaian', 'maulid', 'akbar', 'kanzus', 'sholawat']</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['pagelaran', 'wayang', 'kulit', 'kanzus', 'sholawat', 'malam', 'november', 'rangkai', 'maulid', 'akbar', 'kanzus', 'sholawat']</t>
         </is>
@@ -1047,10 +1132,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14566</v>
+        <v>29271</v>
       </c>
       <c r="C18" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1064,15 +1149,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['pagelaran', 'wayang', 'kulit', 'di', 'kanzus', 'sholawat', 'tadi', 'malam', 'november', 'rangkaian', 'maulid', 'akbar', 'kanzus', 'sholawat']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>['pagelaran', 'wayang', 'kulit', 'kanzus', 'sholawat', 'malam', 'november', 'rangkaian', 'maulid', 'akbar', 'kanzus', 'sholawat']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['pagelaran', 'wayang', 'kulit', 'kanzus', 'sholawat', 'malam', 'november', 'rangkai', 'maulid', 'akbar', 'kanzus', 'sholawat']</t>
         </is>
@@ -1083,10 +1173,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14567</v>
+        <v>29272</v>
       </c>
       <c r="C19" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -1096,15 +1186,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1115,10 +1210,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14568</v>
+        <v>29273</v>
       </c>
       <c r="C20" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1132,15 +1227,20 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['daerah', 'pati', 'dan', 'sekitarnya']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>['daerah', 'pati']</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>['daerah', 'pati']</t>
         </is>
@@ -1151,10 +1251,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14569</v>
+        <v>29274</v>
       </c>
       <c r="C21" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1168,17 +1268,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['rt', 'kementerian, agama', 'menurutnya', 'tarekat', 'sejatinya', 'merupakan', 'organisasi', 'yang', 'berfungsi', 'menjaga', 'otoritas', 'dan', 'kesahihan', 'sanad', 'ilmu', 'yang', 'diwar']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['kemenag', 'menurutnya', 'tarekat', 'sejatinya', 'organisasi', 'berfungsi', 'menjaga', 'otoritas', 'kesahihan', 'sanad', 'ilmu', 'diwar']</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['kemenag', 'turut', 'tarekat', 'sejati', 'organisasi', 'fungsi', 'jaga', 'otoritas', 'sahih', 'sanad', 'ilmu', 'diwar']</t>
+          <t>['kementerian, agama', 'menurutnya', 'tarekat', 'sejatinya', 'organisasi', 'berfungsi', 'menjaga', 'otoritas', 'kesahihan', 'sanad', 'ilmu', 'diwar']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['menteri agama', 'turut', 'tarekat', 'sejati', 'organisasi', 'fungsi', 'jaga', 'otoritas', 'sahih', 'sanad', 'ilmu', 'diwar']</t>
         </is>
       </c>
     </row>
@@ -1187,10 +1292,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14570</v>
+        <v>29275</v>
       </c>
       <c r="C22" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1204,17 +1309,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['rt', 'ri', 'menteri, agama', 'bersyukur', 'dan', 'menyambut', 'baik', 'atas', 'terpilihnya', 'habib', 'luthfi', 'bin', 'yahya', 'sebagai', 'pemimpin', 'forum', 'ulama', 'su']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['ri', 'menag', 'bersyukur', 'menyambut', 'terpilihnya', 'habib', 'luthfi', 'bin', 'yahya', 'pemimpin', 'forum', 'ulama', 'su']</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['ri', 'menag', 'syukur', 'sambut', 'pilih', 'habib', 'luthfi', 'bin', 'yahya', 'pimpin', 'forum', 'ulama', 'su']</t>
+          <t>['ri', 'menteri, agama', 'bersyukur', 'menyambut', 'terpilihnya', 'habib', 'luthfi', 'bin', 'yahya', 'pemimpin', 'forum', 'ulama', 'su']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['ri', 'menteri agama', 'syukur', 'sambut', 'pilih', 'habib', 'luthfi', 'bin', 'yahya', 'pimpin', 'forum', 'ulama', 'su']</t>
         </is>
       </c>
     </row>
@@ -1223,10 +1333,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14571</v>
+        <v>29276</v>
       </c>
       <c r="C23" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1240,17 +1350,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['rt', 'kementerian, agama', 'menteri, agama', 'lukman', 'hakim', 'saifuddin', 'merasa', 'mendapatkan', 'kehormatan', 'dan', 'kebahagiaan', 'yang', 'luar', 'biasa', 'karena', 'bisa', 'hadir', 'bersama']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['kemenag', 'menag', 'lukman', 'hakim', 'saifuddin', 'kehormatan', 'kebahagiaan', 'hadir']</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['kemenag', 'menag', 'lukman', 'hakim', 'saifuddin', 'hormat', 'bahagia', 'hadir']</t>
+          <t>['kementerian, agama', 'menteri, agama', 'lukman', 'hakim', 'saifuddin', 'kehormatan', 'kebahagiaan', 'hadir']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['menteri agama', 'menteri agama', 'lukman', 'hakim', 'saifuddin', 'hormat', 'bahagia', 'hadir']</t>
         </is>
       </c>
     </row>
@@ -1259,10 +1374,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14572</v>
+        <v>29277</v>
       </c>
       <c r="C24" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1276,15 +1391,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['rt', 'ri', 'hari', 'ini', 'saya', 'ajak', 'kita', 'semua', 'terus', 'bumikan', 'dakwah', 'islam', 'dengan', 'pendekatan', 'sufistik', 'yang', 'cerdas', 'amp', 'cermat', 'mari', 'isi', 'media', 'sosia']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 23 samples and 23 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>['ri', 'ajak', 'bumikan', 'dakwah', 'islam', 'pendekatan', 'sufistik', 'cerdas', 'cermat', 'mari', 'isi', 'media', 'sosia']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>['ri', 'ajak', 'bumi', 'dakwah', 'islam', 'dekat', 'sufistik', 'cerdas', 'cermat', 'mari', 'isi', 'media', 'sosia']</t>
         </is>
@@ -1295,10 +1415,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14573</v>
+        <v>29278</v>
       </c>
       <c r="C25" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1312,17 +1432,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['rt', 'kementerian, agama', 'para', 'sufi', 'memiliki', 'peran', 'yang', 'sangat', 'signifikan', 'dalam', 'tumbuhkembangnya', 'dakwah', 'islam', 'di', 'indonesia', 'tiga', 'aspek', 'yakni']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['kemenag', 'sufi', 'memiliki', 'peran', 'signifikan', 'tumbuhkembangnya', 'dakwah', 'islam', 'indonesia', 'aspek']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['kemenag', 'sufi', 'milik', 'peran', 'signifikan', 'tumbuhkembangnya', 'dakwah', 'islam', 'indonesia', 'aspek']</t>
+          <t>['kementerian, agama', 'sufi', 'memiliki', 'peran', 'signifikan', 'tumbuhkembangnya', 'dakwah', 'islam', 'indonesia', 'aspek']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['menteri agama', 'sufi', 'milik', 'peran', 'signifikan', 'tumbuhkembangnya', 'dakwah', 'islam', 'indonesia', 'aspek']</t>
         </is>
       </c>
     </row>
@@ -1331,10 +1456,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14574</v>
+        <v>29279</v>
       </c>
       <c r="C26" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1348,17 +1473,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['rt', 'ri', 'menteri, agama', 'bupati', 'dan', 'wakil', 'bupati', 'pekalongan', 'foto', 'bersama', 'ulama', 'sufi', 'dari', 'berbagai', 'negara', 'peserta', 'konferensi']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['ri', 'menag', 'bupati', 'wakil', 'bupati', 'pekalongan', 'foto', 'ulama', 'sufi', 'negara', 'peserta', 'konferensi']</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['ri', 'menag', 'bupati', 'wakil', 'bupati', 'kalong', 'foto', 'ulama', 'sufi', 'negara', 'serta', 'konferensi']</t>
+          <t>['ri', 'menteri, agama', 'bupati', 'wakil', 'bupati', 'pekalongan', 'foto', 'ulama', 'sufi', 'negara', 'peserta', 'konferensi']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['ri', 'menteri agama', 'bupati', 'wakil', 'bupati', 'kalong', 'foto', 'ulama', 'sufi', 'negara', 'serta', 'konferensi']</t>
         </is>
       </c>
     </row>
@@ -1367,10 +1497,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14575</v>
+        <v>29280</v>
       </c>
       <c r="C27" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1384,17 +1514,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['rt', 'kementerian, agama', 'assalamualaikum', 'penyelenggaraan', 'multaqo', 'assufi', 'alalamy', 'konferensi', 'ulama', 'sufi', 'internasional', 'berlangsu']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['kemenag', 'assalamualaikum', 'penyelenggaraan', 'multaqo', 'assufi', 'alalamy', 'konferensi', 'ulama', 'sufi', 'internasional', 'berlangsu']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['kemenag', 'assalamualaikum', 'selenggara', 'multaqo', 'assufi', 'alalamy', 'konferensi', 'ulama', 'sufi', 'internasional', 'berlangsu']</t>
+          <t>['kementerian, agama', 'assalamualaikum', 'penyelenggaraan', 'multaqo', 'assufi', 'alalamy', 'konferensi', 'ulama', 'sufi', 'internasional', 'berlangsu']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['menteri agama', 'assalamualaikum', 'selenggara', 'multaqo', 'assufi', 'alalamy', 'konferensi', 'ulama', 'sufi', 'internasional', 'berlangsu']</t>
         </is>
       </c>
     </row>
@@ -1403,10 +1538,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14576</v>
+        <v>29281</v>
       </c>
       <c r="C28" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1420,17 +1555,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['rt', 'ri', 'menteri, agama', 'tiba', 'di', 'pendopo', 'kabupaten', 'pekalongan', 'jelang', 'penutupan', 'konferensi', 'ulama', 'sufi', 'internasional']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['ri', 'menag', 'pendopo', 'kabupaten', 'pekalongan', 'jelang', 'penutupan', 'konferensi', 'ulama', 'sufi', 'internasional']</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['ri', 'menag', 'pendopo', 'kabupaten', 'kalong', 'jelang', 'tutup', 'konferensi', 'ulama', 'sufi', 'internasional']</t>
+          <t>['ri', 'menteri, agama', 'pendopo', 'kabupaten', 'pekalongan', 'jelang', 'penutupan', 'konferensi', 'ulama', 'sufi', 'internasional']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['ri', 'menteri agama', 'pendopo', 'kabupaten', 'kalong', 'jelang', 'tutup', 'konferensi', 'ulama', 'sufi', 'internasional']</t>
         </is>
       </c>
     </row>
@@ -1439,10 +1579,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>14577</v>
+        <v>29282</v>
       </c>
       <c r="C29" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1456,17 +1596,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['rt', 'ri', 'menteri, agama', 'bersama', 'sejumlah', 'peserta', 'konferensi', 'ulama', 'sufi', 'internasional', 'kunjungi', 'stan', 'pameran', 'kementerian', 'agama']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['ri', 'menag', 'peserta', 'konferensi', 'ulama', 'sufi', 'internasional', 'kunjungi', 'stan', 'pameran', 'kementerian', 'agama']</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['ri', 'menag', 'serta', 'konferensi', 'ulama', 'sufi', 'internasional', 'kunjung', 'stan', 'pamer', 'menteri', 'agama']</t>
+          <t>['ri', 'menteri, agama', 'peserta', 'konferensi', 'ulama', 'sufi', 'internasional', 'kunjungi', 'stan', 'pameran', 'kementerian', 'agama']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['ri', 'menteri agama', 'serta', 'konferensi', 'ulama', 'sufi', 'internasional', 'kunjung', 'stan', 'pamer', 'menteri', 'agama']</t>
         </is>
       </c>
     </row>
@@ -1475,10 +1620,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14578</v>
+        <v>29283</v>
       </c>
       <c r="C30" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1492,15 +1637,20 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['ulama', 'dan', 'politik', 'seumpama', 'ikan', 'dan', 'air', 'laut', 'ai']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>['ulama', 'politik', 'seumpama', 'ikan', 'air', 'laut', 'ai']</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>['ulama', 'politik', 'umpama', 'ikan', 'air', 'laut', 'ai']</t>
         </is>
@@ -1511,10 +1661,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14579</v>
+        <v>29284</v>
       </c>
       <c r="C31" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1528,15 +1678,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['tasawuf', 'adalah', 'penjernih', 'diri', 'bangsa', 'umat', 'dan', 'negara']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>['tasawuf', 'penjernih', 'bangsa', 'umat', 'negara']</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>['tasawuf', 'jernih', 'bangsa', 'umat', 'negara']</t>
         </is>
@@ -1547,10 +1702,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14580</v>
+        <v>29285</v>
       </c>
       <c r="C32" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1564,15 +1719,20 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['apabila', 'kita', 'tidak', 'mempunyai', 'kekuatan', 'untuk', 'perkembangan', 'tasawuf', 'maka', 'ini', 'akan', 'berjalan', 'dengan', 'baik']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>['kekuatan', 'perkembangan', 'tasawuf', 'berjalan']</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>['kuat', 'kembang', 'tasawuf', 'jalan']</t>
         </is>
@@ -1583,10 +1743,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14581</v>
+        <v>29286</v>
       </c>
       <c r="C33" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1600,15 +1760,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['hati', 'umat', 'akan', 'besar', 'jika', 'melihat', 'pemuka', 'agama', 'mereka', 'rukun']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>['hati', 'umat', 'pemuka', 'agama', 'rukun']</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>['hati', 'umat', 'muka', 'agama', 'rukun']</t>
         </is>
@@ -1619,10 +1784,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14582</v>
+        <v>29287</v>
       </c>
       <c r="C34" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1636,15 +1801,20 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['tasawuf', 'dan', 'thoriqoh', 'tidak', 'bisa', 'dikembangkan', 'perorangan', 'oleh', 'karena', 'itu', 'harus', 'saling', 'mendukung', 'antar', 'toriqah', 'dalam']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>['tasawuf', 'thoriqoh', 'dikembangkan', 'perorangan', 'mendukung', 'toriqah']</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>['tasawuf', 'thoriqoh', 'kembang', 'orang', 'dukung', 'toriqah']</t>
         </is>
@@ -1655,10 +1825,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14583</v>
+        <v>29288</v>
       </c>
       <c r="C35" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1672,15 +1842,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['jika', 'tasawuf', 'menyebar', 'saja', 'di', 'dunia', 'ini', 'maka', 'mereka', 'akan', 'menjadi', 'pendamai', 'diantara', 'masyarakat', 'duni']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>['tasawuf', 'menyebar', 'dunia', 'pendamai', 'masyarakat', 'duni']</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>['tasawuf', 'sebar', 'dunia', 'damai', 'masyarakat', 'duni']</t>
         </is>
@@ -1691,10 +1866,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14584</v>
+        <v>29289</v>
       </c>
       <c r="C36" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1708,15 +1883,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['menyucikan', 'diri', 'penting', 'tidak', 'mungkin', 'tidak', 'karena', 'perang', 'dan', 'permusuhan', 'disebabkan', 'karena', 'kotornya', 'hati', 'hasud', 'dengki', 'dan', 'amarah']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['mensucikan', 'perang', 'permusuhan', 'disebabkan', 'kotornya', 'hati', 'hasud', 'dengki', 'amarah']</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
+        <is>
+          <t>['menyucikan', 'perang', 'permusuhan', 'disebabkan', 'kotornya', 'hati', 'hasud', 'dengki', 'amarah']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>['suci', 'perang', 'musuh', 'sebab', 'kotor', 'hati', 'hasud', 'dengki', 'amarah']</t>
         </is>
@@ -1727,10 +1907,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14585</v>
+        <v>29290</v>
       </c>
       <c r="C37" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1744,15 +1924,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['jika', 'tasawuf', 'mewarnai', 'seluruh', 'hidup', 'maka', 'manusia', 'akan', 'damai']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>['tasawuf', 'mewarnai', 'hidup', 'manusia', 'damai']</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>['tasawuf', 'warna', 'hidup', 'manusia', 'damai']</t>
         </is>
@@ -1763,10 +1948,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14586</v>
+        <v>29291</v>
       </c>
       <c r="C38" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1780,15 +1965,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['mengenalkan', 'tasawuf', 'kepada', 'masyarakat', 'lebih', 'sulit', 'daripada', 'memotivasi', 'masyarakat', 'untuk', 'menghafal', 'alquran']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>['mengenalkan', 'tasawuf', 'masyarakat', 'sulit', 'memotivasi', 'masyarakat', 'menghafal', 'alquran']</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>['kenal', 'tasawuf', 'masyarakat', 'sulit', 'motivasi', 'masyarakat', 'hafal', 'alquran']</t>
         </is>
@@ -1799,10 +1989,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14587</v>
+        <v>29292</v>
       </c>
       <c r="C39" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1816,15 +2006,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['rt', 'maulana', 'habib', 'luthfi', 'bin', 'yahya', 'hadir', 'sejak', 'awal', 'untuk', 'mengikuti', 'sesi', 'sesi', 'terakhir', 'di', 'hotel', 'santika']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>['maulana', 'habib', 'luthfi', 'bin', 'yahya', 'hadir', 'mengikuti', 'sesi', 'sesi', 'hotel', 'santika']</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>['maulana', 'habib', 'luthfi', 'bin', 'yahya', 'hadir', 'ikut', 'sesi', 'sesi', 'hotel', 'santika']</t>
         </is>
@@ -1835,10 +2030,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14588</v>
+        <v>29293</v>
       </c>
       <c r="C40" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1852,17 +2047,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['rt', 'fitrah', 'seorang', 'sufi', 'adalah', 'mencintai', 'membenci', 'karena', 'allah', 'bukan', 'dengan', 'membenci', 'orangnya', 'tetapi', 'perbuatannya', 'saja', 'saya']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['fitrah', 'sufi', 'mencintai', 'membenci', 'allah', 'membenci', 'orangnya', 'perbuatannya', 'sy']</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['fitrah', 'sufi', 'cinta', 'benci', 'allah', 'benci', 'orang', 'buat', 'sy']</t>
+          <t>['fitrah', 'sufi', 'mencintai', 'membenci', 'allah', 'membenci', 'orangnya', 'perbuatannya']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['fitrah', 'sufi', 'cinta', 'benci', 'allah', 'benci', 'orang', 'buat']</t>
         </is>
       </c>
     </row>
@@ -1871,10 +2071,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14589</v>
+        <v>29294</v>
       </c>
       <c r="C41" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1888,15 +2088,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['rt', 'qaddoumi']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>['qaddoumi']</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>['qaddoumi']</t>
         </is>
@@ -1907,10 +2112,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14590</v>
+        <v>29295</v>
       </c>
       <c r="C42" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1924,15 +2129,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['rt', 'qaddoumi']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>['qaddoumi']</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>['qaddoumi']</t>
         </is>
@@ -1943,10 +2153,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14591</v>
+        <v>29296</v>
       </c>
       <c r="C43" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1960,15 +2170,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['rt', 'qaddoumi']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>['qaddoumi']</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>['qaddoumi']</t>
         </is>
@@ -1979,10 +2194,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14592</v>
+        <v>29297</v>
       </c>
       <c r="C44" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1996,17 +2211,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['rt', 'syekh', 'ahmad', 'kuftaro', 'mufti', 'suriah', 'terdahulu', 'mengatakan', 'dalam', 'islam', 'ada', 'segumpal', 'daging', 'jika', 'bagian', 'itu', 'sehat', 'maka', 'akan', 'seha']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['syeikh', 'ahmad', 'kuftaro', 'mufti', 'suriah', 'islam', 'segumpal', 'daging', 'sehat', 'seha']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['syeikh', 'ahmad', 'kuftaro', 'mufti', 'suriah', 'islam', 'gumpal', 'daging', 'sehat', 'seha']</t>
+          <t>['syekh', 'ahmad', 'kuftaro', 'mufti', 'suriah', 'islam', 'segumpal', 'daging', 'sehat', 'seha']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['syekh', 'ahmad', 'kuftaro', 'mufti', 'suriah', 'islam', 'gumpal', 'daging', 'sehat', 'seha']</t>
         </is>
       </c>
     </row>
@@ -2015,10 +2235,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14593</v>
+        <v>29298</v>
       </c>
       <c r="C45" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2032,15 +2252,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['rt', 'qaddoumi']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>['qaddoumi']</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>['qaddoumi']</t>
         </is>
@@ -2051,10 +2276,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14594</v>
+        <v>29299</v>
       </c>
       <c r="C46" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2068,17 +2293,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['rt', 'solusi', 'dari', 'ekstremisme', 'adalah', 'menyambungkan', 'kembali', 'umat', 'islam', 'kepada', 'allah', 'dengan', 'cara', 'yang', 'benar', 'dan', 'itu', 'dilakukan', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['solusi', 'ekstrimisme', 'menyambungkan', 'umat', 'islam', 'allah']</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['solusi', 'ekstrimisme', 'sambung', 'umat', 'islam', 'allah']</t>
+          <t>['solusi', 'ekstremisme', 'menyambungkan', 'umat', 'islam', 'allah']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['solusi', 'ekstrem', 'sambung', 'umat', 'islam', 'allah']</t>
         </is>
       </c>
     </row>
@@ -2087,10 +2317,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14595</v>
+        <v>29300</v>
       </c>
       <c r="C47" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2104,17 +2334,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['rt', 'kita', 'tidak', 'bisa', 'memahami', 'bagaimana', 'bisa', 'menumpahkan', 'darah', 'muslim', 'di, dalam', 'masjid', 'hanya', 'karena', 'perbedaan', 'paham', 'agama', 'padahal', 'sama']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['memahami', 'menumpahkan', 'darah', 'muslim', 'didalam', 'masjid', 'perbedaan', 'paham', 'agama', 'sam']</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['paham', 'tumpah', 'darah', 'muslim', 'dalam', 'masjid', 'beda', 'paham', 'agama', 'sam']</t>
+          <t>['memahami', 'menumpahkan', 'darah', 'muslim', 'di, dalam', 'masjid', 'perbedaan', 'paham', 'agama']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['paham', 'tumpah', 'darah', 'muslim', 'di dalam', 'masjid', 'beda', 'paham', 'agama']</t>
         </is>
       </c>
     </row>
@@ -2123,10 +2358,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14596</v>
+        <v>29301</v>
       </c>
       <c r="C48" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2140,17 +2375,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['rt', 'ekstremis', 'selalu', 'bicara', 'siksa', 'neraka', 'dan, lain, lain', 'tidak', 'pernah', 'membicarakan', 'keindahan', 'islam', 'dan', 'luasnya', 'rahmat', 'allah', 'subhanahu, wa, taala']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['ekstrimis', 'bicara', 'siksa', 'neraka', 'dll', 'membicarakan', 'keindahan', 'islam', 'luasnya', 'rahmat', 'allah', 'swt']</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['ekstrimis', 'bicara', 'siksa', 'neraka', 'dll', 'bicara', 'indah', 'islam', 'luas', 'rahmat', 'allah', 'swt']</t>
+          <t>['ekstremis', 'bicara', 'siksa', 'neraka', 'dan, lain, lain', 'membicarakan', 'keindahan', 'islam', 'luasnya', 'rahmat', 'allah', 'subhanahu, wa, taala']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['ekstremis', 'bicara', 'siksa', 'neraka', 'dan lain lain', 'bicara', 'indah', 'islam', 'luas', 'rahmat', 'allah', 'subhanahu wa taala']</t>
         </is>
       </c>
     </row>
@@ -2159,10 +2399,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14597</v>
+        <v>29302</v>
       </c>
       <c r="C49" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2176,17 +2416,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['rt', 'ekstremisme', 'tataruf', 'melahirkan', 'teroris', 'irhab', 'tidak', 'bisa', 'diatasi', 'dengan', 'melihat', 'salah', 'satu', 'aspek', 'tapi', 'harus', 'melihat', 'secar']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>['ekstrimisme', 'tataruf', 'melahirkan', 'teroris', 'irhab', 'diatasi', 'salah', 'aspek', 'secar']</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['ekstrimisme', 'tataruf', 'lahir', 'teroris', 'irhab', 'atas', 'salah', 'aspek', 'secar']</t>
+          <t>['ekstremisme', 'tataruf', 'melahirkan', 'teroris', 'irhab', 'diatasi', 'salah', 'aspek', 'secar']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['ekstrem', 'tataruf', 'lahir', 'teroris', 'irhab', 'atas', 'salah', 'aspek', 'secar']</t>
         </is>
       </c>
     </row>
@@ -2195,10 +2440,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14598</v>
+        <v>29303</v>
       </c>
       <c r="C50" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2212,17 +2457,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['rt', 'ekstremisme', 'menodai', 'agama', 'yang', 'indah', 'dan', 'agung', 'bagaimana', 'bisa', 'mencerimanya', 'dengan', 'perbuatan', 'di, luar', 'batas', 'tidak', 'bisa', 'dibernak']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['ekstrimisme', 'menodai', 'agama', 'indah', 'agung', 'mencerimanya', 'perbuatan', 'diluar', 'batas', 'dibernak']</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['ekstrimisme', 'noda', 'agama', 'indah', 'agung', 'mencerimanya', 'buat', 'luar', 'batas', 'nak']</t>
+          <t>['ekstremisme', 'menodai', 'agama', 'indah', 'agung', 'mencerimanya', 'perbuatan', 'di, luar', 'batas', 'dibernak']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['ekstrem', 'noda', 'agama', 'indah', 'agung', 'mencerimanya', 'buat', 'di luar', 'batas', 'nak']</t>
         </is>
       </c>
     </row>
@@ -2231,10 +2481,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14599</v>
+        <v>29304</v>
       </c>
       <c r="C51" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2248,15 +2498,20 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['rt', 'kelompok', 'radikal', 'masuk', 'ke', 'kampungkampung', 'menyembelih', 'anakanak', 'kecil', 'untuk', 'satu', 'alasan', 'penegakan', 'hukum', 'alah', 'dengan', 'cara', 'yang']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>['kelompok', 'radikal', 'masuk', 'kampungkampung', 'menyembelih', 'anakanak', 'alasan', 'penegakan', 'hukum', 'alah']</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>['kelompok', 'radikal', 'masuk', 'kampungkampung', 'sembelih', 'anakanak', 'alas', 'tega', 'hukum', 'alah']</t>
         </is>
@@ -2267,10 +2522,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14600</v>
+        <v>29305</v>
       </c>
       <c r="C52" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2284,17 +2539,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['sesi', 'peran', 'tasawuf', 'sebagai', 'solusi', 'ekstremisme', 'bismillah', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['sesi', 'peran', 'tasawuf', 'solusi', 'ekstrimisme', 'bismillah', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['sesi', 'peran', 'tasawuf', 'solusi', 'ekstrimisme', 'bismillah', 'indonesia']</t>
+          <t>['sesi', 'peran', 'tasawuf', 'solusi', 'ekstremisme', 'bismillah', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['sesi', 'peran', 'tasawuf', 'solusi', 'ekstrem', 'bismillah', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -2303,10 +2563,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14601</v>
+        <v>29306</v>
       </c>
       <c r="C53" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2320,15 +2580,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['rt', 'info', 'maulana', 'dan', 'sejumlah', 'tokoh', 'sufi', 'terkemuka', 'berkumpul', 'di', 'wordl', 'sufi', 'forum', 'forum', 'sufi', 'dunia', 'yang']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>['info', 'maulana', 'tokoh', 'sufi', 'terkemuka', 'berkumpul', 'wordl', 'sufi', 'forum', 'forum', 'sufi', 'dunia']</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>['info', 'maulana', 'tokoh', 'sufi', 'muka', 'kumpul', 'wordl', 'sufi', 'forum', 'forum', 'sufi', 'dunia']</t>
         </is>
@@ -2339,10 +2604,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14602</v>
+        <v>29307</v>
       </c>
       <c r="C54" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2356,17 +2621,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'atas', 'silaturahminya', 'pak', 'menteri, agama', 'berkah', 'amin']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['terimakasih', 'silaturahminya', 'menag', 'berkah', 'amin']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['terimakasih', 'silaturahmi', 'menag', 'berkah', 'amin']</t>
+          <t>['terima, kasih', 'silaturahminya', 'menteri, agama', 'berkah', 'amin']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'silaturahmi', 'menteri agama', 'berkah', 'amin']</t>
         </is>
       </c>
     </row>
@@ -2375,10 +2645,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14603</v>
+        <v>29308</v>
       </c>
       <c r="C55" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2392,17 +2662,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['silaturahim', 'ulama', 'umara', 'tentara, nasional, indonesia', 'amp', 'kepolisian, republik, indonesia', 'menhan', 'sedang', 'menyampaikan', 'konsep', 'bela', 'negara', 'pertahanan', 'dan', 'kemanan', 'negara']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['silaturahim', 'ulama', 'umaro', 'tni', 'polri', 'menhan', 'konsep', 'bela', 'negara', 'pertahanan', 'kemanan', 'negara']</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['silaturahim', 'ulama', 'umaro', 'tni', 'polri', 'menhan', 'konsep', 'bela', 'negara', 'tahan', 'keman', 'negara']</t>
+          <t>['silaturahim', 'ulama', 'umara', 'tentara, nasional, indonesia', 'kepolisian, republik, indonesia', 'menhan', 'konsep', 'bela', 'negara', 'pertahanan', 'kemanan', 'negara']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['silaturahim', 'ulama', 'umara', 'tentara nasional indonesia', 'polisi republik indonesia', 'menhan', 'konsep', 'bela', 'negara', 'tahan', 'keman', 'negara']</t>
         </is>
       </c>
     </row>
@@ -2411,10 +2686,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14604</v>
+        <v>29309</v>
       </c>
       <c r="C56" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2428,15 +2703,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['pawai', 'panjang', 'jimat', 'kemarin']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>['pawai', 'jimat', 'kemarin']</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>['pawai', 'jimat', 'kemarin']</t>
         </is>
@@ -2447,10 +2727,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14605</v>
+        <v>29310</v>
       </c>
       <c r="C57" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2464,15 +2744,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['apel', 'amp', 'ikrar', 'merah', 'putih', 'dipimpin', 'oleh', 'menhan', 'dan', 'diikuti', 'perwakilan', 'sekolah', 'universitas', 'dan', 'kesatuan', 'dari', 'lembag']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>['apel', 'ikrar', 'merah', 'putih', 'dipimpin', 'menhan', 'diikuti', 'perwakilan', 'sekolah', 'universitas', 'kesatuan', 'lembag']</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>['apel', 'ikrar', 'merah', 'putih', 'pimpin', 'menhan', 'ikut', 'wakil', 'sekolah', 'universitas', 'satu', 'lembag']</t>
         </is>
@@ -2483,10 +2768,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14606</v>
+        <v>29311</v>
       </c>
       <c r="C58" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2500,15 +2785,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['bersama', 'menhan', 'yang', 'akan', 'menghadiri', 'apel', 'merah', 'putih', 'di', 'alunalun', 'kota', 'pekalongan']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>['menhan', 'menghadiri', 'apel', 'merah', 'putih', 'alunalun', 'kota', 'pekalongan']</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>['menhan', 'hadir', 'apel', 'merah', 'putih', 'alunalun', 'kota', 'kalong']</t>
         </is>
@@ -2519,10 +2809,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14607</v>
+        <v>29312</v>
       </c>
       <c r="C59" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2536,15 +2826,20 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['agenda', 'maulid', 'kanzus', 'jumat', 'mulai', 'pukul']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>['agenda', 'maulid', 'kanzus', 'jumat']</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>['agenda', 'maulid', 'kanzus', 'jumat']</t>
         </is>
@@ -2555,10 +2850,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14608</v>
+        <v>29313</v>
       </c>
       <c r="C60" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2572,15 +2867,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['agenda', 'maulid', 'nabi', 'kanzus', 'sholawat', 'desember']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>['agenda', 'maulid', 'nabi', 'kanzus', 'sholawat', 'desember']</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>['agenda', 'maulid', 'nabi', 'kanzus', 'sholawat', 'desember']</t>
         </is>
@@ -2591,10 +2891,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14609</v>
+        <v>29314</v>
       </c>
       <c r="C61" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2608,15 +2908,20 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['satu', 'sisi', 'harus', 'adil', 'dalam', 'melihat', 'sejarah', 'tetapi', 'tidak', 'menafikan', 'kebesaran', 'yang', 'allah', 'berikan', 'kepada', 'para', 'sahabat']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>['sisi', 'adil', 'sejarah', 'menafikan', 'kebesaran', 'allah', 'sahabat']</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>['sisi', 'adil', 'sejarah', 'nafi', 'besar', 'allah', 'sahabat']</t>
         </is>
@@ -2627,10 +2932,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14610</v>
+        <v>29315</v>
       </c>
       <c r="C62" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2644,15 +2949,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['meskipun', 'perlakuan', 'bani', 'umayah', 'khususnya', 'sayidina', 'muawiyah', 'bin', 'abi', 'sufyan', 'dan', 'putranya', 'yazid', 'kepada', 'keluarga', 'nabi']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>['perlakuan', 'bani', 'umayah', 'sayidina', 'muawiyah', 'bin', 'abi', 'sufyan', 'putranya', 'yazid', 'keluarga', 'nabi']</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>['laku', 'bani', 'umayah', 'sayidina', 'muawiyah', 'bin', 'abi', 'sufyan', 'putra', 'yazid', 'keluarga', 'nabi']</t>
         </is>
@@ -2663,10 +2973,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14611</v>
+        <v>29316</v>
       </c>
       <c r="C63" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2680,15 +2990,20 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['membaca', 'sholawat', 'kepada', 'nabi', 'saw', 'adalah', 'sarana', 'silaturahmi', 'kita', 'kepada', 'nabi', 'saw', 'nabi', 'sudah', 'mendapatkan', 'banyak', 'rahmat']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>['membaca', 'sholawat', 'nabi', 'saw', 'sarana', 'silaturahmi', 'nabi', 'saw', 'nabi', 'rahmat']</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>['baca', 'sholawat', 'nabi', 'saw', 'sarana', 'silaturahmi', 'nabi', 'saw', 'nabi', 'rahmat']</t>
         </is>
@@ -2699,10 +3014,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14612</v>
+        <v>29317</v>
       </c>
       <c r="C64" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2716,17 +3031,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['malam', 'ke', 'ramadan', 'ini', 'maulana', 'habib', 'luthfi', 'bin', 'yahya', 'mengulas', 'musik', 'dan', 'hukummya', 'sebagai', 'pemusik', 'beliau', 'mengua']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>['malam', 'ramadhan', 'maulana', 'habib', 'luthfi', 'bin', 'yahya', 'mengulas', 'musik', 'hukummya', 'pemusik', 'beliau', 'mengua']</t>
-        </is>
-      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['malam', 'ramadhan', 'maulana', 'habib', 'luthfi', 'bin', 'yahya', 'ulas', 'musik', 'hukummya', 'musik', 'beliau', 'mengua']</t>
+          <t>['malam', 'ramadan', 'maulana', 'habib', 'luthfi', 'bin', 'yahya', 'mengulas', 'musik', 'hukummya', 'pemusik', 'beliau', 'mengua']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['malam', 'ramadan', 'maulana', 'habib', 'luthfi', 'bin', 'yahya', 'ulas', 'musik', 'hukummya', 'musik', 'beliau', 'mengua']</t>
         </is>
       </c>
     </row>
@@ -2735,10 +3055,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14613</v>
+        <v>29318</v>
       </c>
       <c r="C65" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2752,17 +3072,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['yang', 'berhak', 'menyatakan', 'ahli', 'ya', 'ahli', 'lagi', 'bukan', 'karena', 'suka', 'atau', 'karena', 'gurunya', 'pernyataan', 'iblis', 'pada', 'syekh', 'abdi']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['berhak', 'ahli', 'ahli', 'suka', 'gurunya', 'pernyataan', 'iblis', 'syekh', 'abd']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['hak', 'ahli', 'ahli', 'suka', 'guru', 'nyata', 'iblis', 'syekh', 'abd']</t>
+          <t>['berhak', 'ahli', 'ahli', 'suka', 'gurunya', 'pernyataan', 'iblis', 'syekh', 'abdi']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['hak', 'ahli', 'ahli', 'suka', 'guru', 'nyata', 'iblis', 'syekh', 'abdi']</t>
         </is>
       </c>
     </row>
@@ -2771,10 +3096,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14614</v>
+        <v>29319</v>
       </c>
       <c r="C66" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2788,17 +3113,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['para', 'sahabat', 'nabi', 'saw', 'adalah', 'orang', 'terpilih', 'terutama', 'khulafa', 'rasyidin', 'empat', 'sahabat', 'utama', 'sayidina', 'abu', 'bakar', 'sayang']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>['sahabat', 'nabi', 'saw', 'orang', 'terpilih', 'khulafa', 'rasyidin', 'sahabat', 'utama', 'sayidina', 'abu', 'bakar', 'say']</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['sahabat', 'nabi', 'saw', 'orang', 'pilih', 'khulafa', 'rasyidin', 'sahabat', 'utama', 'sayidina', 'abu', 'bakar', 'say']</t>
+          <t>['sahabat', 'nabi', 'saw', 'orang', 'terpilih', 'khulafa', 'rasyidin', 'sahabat', 'utama', 'sayidina', 'abu', 'bakar', 'sayang']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['sahabat', 'nabi', 'saw', 'orang', 'pilih', 'khulafa', 'rasyidin', 'sahabat', 'utama', 'sayidina', 'abu', 'bakar', 'sayang']</t>
         </is>
       </c>
     </row>
@@ -2807,10 +3137,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14615</v>
+        <v>29320</v>
       </c>
       <c r="C67" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2824,15 +3154,20 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['kata', 'inovasi', 'saya', 'yang', 'dikatakan', 'sayidina', 'umar', 'untuk', 'memperjelas', 'mana', 'yang', 'dilakukan', 'pada', 'zaman', 'nabi', 'sa']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>['inovasi', 'sayidina', 'umar', 'memperjelas', 'zaman', 'nabi', 'sa']</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>['inovasi', 'sayidina', 'umar', 'jelas', 'zaman', 'nabi', 'sa']</t>
         </is>
@@ -2843,10 +3178,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14616</v>
+        <v>29321</v>
       </c>
       <c r="C68" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2860,17 +3195,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['sayidina', 'umar', 'bin', 'khattab', 'menurut', 'satu', 'riwayat', 'adalah', 'sahabat', 'yang', 'menambah', 'azan', 'jumat', 'dari', 'kali', 'menjadi', 'kal']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>['sayidina', 'umar', 'bin', 'khatab', 'riwayat', 'sahabat', 'menambah', 'adzan', 'jumat', 'kali', 'kal']</t>
-        </is>
-      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['sayidina', 'umar', 'bin', 'khatab', 'riwayat', 'sahabat', 'tambah', 'adzan', 'jumat', 'kali', 'kal']</t>
+          <t>['sayidina', 'umar', 'bin', 'khattab', 'riwayat', 'sahabat', 'menambah', 'azan', 'jumat', 'kali', 'kal']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['sayidina', 'umar', 'bin', 'khattab', 'riwayat', 'sahabat', 'tambah', 'azan', 'jumat', 'kali', 'kal']</t>
         </is>
       </c>
     </row>
@@ -2879,10 +3219,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14617</v>
+        <v>29322</v>
       </c>
       <c r="C69" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2896,15 +3236,20 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['apa', 'yang', 'sudah', 'dimudahkan', 'oleh', 'agama', 'lakukanlah', 'jangan', 'berlebihan', 'dalam', 'ihtiyat', 'terlampau', 'berhatihati']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>['dimudahkan', 'agama', 'lakukanlah', 'ihtiyat', 'terlampau', 'berhatihati']</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>['mudah', 'agama', 'laku', 'ihtiyat', 'lampau', 'berhatihati']</t>
         </is>
@@ -2915,10 +3260,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14618</v>
+        <v>29323</v>
       </c>
       <c r="C70" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2932,15 +3277,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['rt', 'online', 'mengenang', 'habib', 'ahmad', 'bin', 'abdullah', 'bin', 'thalib', 'alatthas', 'pekalongan']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>['online', 'mengenang', 'habib', 'ahmad', 'bin', 'abdullah', 'bin', 'thalib', 'alatthas', 'pekalongan']</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>['online', 'kenang', 'habib', 'ahmad', 'bin', 'abdullah', 'bin', 'thalib', 'alatthas', 'kalong']</t>
         </is>
@@ -2951,10 +3301,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14619</v>
+        <v>29324</v>
       </c>
       <c r="C71" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2968,17 +3318,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['rt', 'apa', 'betul', 'dalam', 'sejarah', 'konstituante', 'nu', 'menolak', 'piagam', 'jakarta', 'bagaimana', 'sikap', 'nu', 'terhadap', 'pemberontakan', 'darul', 'islam', 'dan', 'pekerjaan, rumah']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>['sejarah', 'konstituante', 'nu', 'menolak', 'piagam', 'jakarta', 'sikap', 'nu', 'pemberontakan', 'darul', 'islam', 'pr']</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['sejarah', 'konstituante', 'nu', 'tolak', 'piagam', 'jakarta', 'sikap', 'nu', 'ronta', 'darul', 'islam', 'pr']</t>
+          <t>['sejarah', 'konstituante', 'nu', 'menolak', 'piagam', 'jakarta', 'sikap', 'nu', 'pemberontakan', 'darul', 'islam', 'pekerjaan, rumah']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['sejarah', 'konstituante', 'nu', 'tolak', 'piagam', 'jakarta', 'sikap', 'nu', 'ronta', 'darul', 'islam', 'kerja rumah']</t>
         </is>
       </c>
     </row>
@@ -2987,10 +3342,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14620</v>
+        <v>29325</v>
       </c>
       <c r="C72" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3004,15 +3359,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['rt', 'abdillahtoha', 'menarik', 'terutama', 'ketika', 'penulis', 'menduga', 'revisionisme', 'ini', 'dalam', 'rangka', 'melawan', 'kelompok', 'konservatif', 'yang', 'men']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>['abdillahtoha', 'menarik', 'penulis', 'menduga', 'revisionisme', 'rangka', 'melawan', 'kelompok', 'konservatif', 'men']</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>['abdillahtoha', 'tarik', 'tulis', 'duga', 'revisionisme', 'rangka', 'lawan', 'kelompok', 'konservatif', 'men']</t>
         </is>
@@ -3023,10 +3383,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14621</v>
+        <v>29326</v>
       </c>
       <c r="C73" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3040,15 +3400,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['rt', 'kita', 'berkembang', 'melalui', 'dialektika', 'dialektika', 'membutuhkan', 'kontradiksi', 'internal', 'dan', 'ragam', 'persepsi', 'yang', 'penting', 'semuanya', 'didas']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>['berkembang', 'dialektika', 'dialektika', 'membutuhkan', 'kontradiksi', 'internal', 'ragam', 'persepsi', 'didas']</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>['kembang', 'dialektika', 'dialektika', 'butuh', 'kontradiksi', 'internal', 'ragam', 'persepsi', 'das']</t>
         </is>
@@ -3059,10 +3424,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14622</v>
+        <v>29327</v>
       </c>
       <c r="C74" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3076,15 +3441,20 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['rt', 'peradaban', 'arab', 'jahiliyah', 'tak', 'kenal', 'budaya', 'tulis', 'bedakah', 'arabia', 'sebelum', 'amp', 'sesudah', 'islam', 'mungkin', 'perkembangan', 'arkeologi', 'amp', 'phi']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>['peradaban', 'arab', 'jahiliyah', 'kenal', 'budaya', 'tulis', 'bedakah', 'arabia', 'islam', 'perkembangan', 'arkeologi', 'phi']</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>['adab', 'arab', 'jahiliyah', 'kenal', 'budaya', 'tulis', 'beda', 'arabia', 'islam', 'kembang', 'arkeologi', 'phi']</t>
         </is>
@@ -3095,10 +3465,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14623</v>
+        <v>29328</v>
       </c>
       <c r="C75" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3112,15 +3482,20 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['raden', 'jakfar', 'sodiq', 'atau', 'sunan', 'kudus', 'sangat', 'bijak', 'dalam', 'berdakwah', 'beliau', 'melarang', 'menyembelih', 'sapi', 'menghormati', 'dan']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>['raden', 'jakfar', 'sodiq', 'sunan', 'kudus', 'bijak', 'berdakwah', 'beliau', 'melarang', 'menyembelih', 'sapi', 'menghormati']</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>['raden', 'jakfar', 'sodiq', 'sunan', 'kudus', 'bijak', 'dakwah', 'beliau', 'larang', 'sembelih', 'sapi', 'hormat']</t>
         </is>
@@ -3131,10 +3506,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14624</v>
+        <v>29329</v>
       </c>
       <c r="C76" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3148,15 +3523,20 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['rasulullah', 'saw', 'membekali', 'para', 'sahabat', 'agar', 'dapat', 'hidup', 'berdampingan', 'dengan', 'non', 'muslim', 'hijrah', 'pertama', 'ke', 'etiopia']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>['rasulullah', 'saw', 'membekali', 'sahabat', 'hidup', 'berdampingan', 'non', 'muslim', 'hijrah', 'etiopia']</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>['rasulullah', 'saw', 'bekal', 'sahabat', 'hidup', 'damping', 'non', 'muslim', 'hijrah', 'etiopia']</t>
         </is>
@@ -3167,10 +3547,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14625</v>
+        <v>29330</v>
       </c>
       <c r="C77" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3184,17 +3564,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['rt', 'salam', 'cinta', 'ya, iyalah']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['salam', 'cinta', 'yai']</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['salam', 'cinta', 'yai']</t>
+          <t>['salam', 'cinta', 'ya, iyalah']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['salam', 'cinta', 'ya iya']</t>
         </is>
       </c>
     </row>
@@ -3203,10 +3588,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14626</v>
+        <v>29331</v>
       </c>
       <c r="C78" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3220,15 +3605,20 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['rt', 'pagi', 'yang', 'istimewa', 'di', 'ndalem', 'maulana', 'yuk', 'merapat']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>['pagi', 'istimewa', 'ndalem', 'maulana', 'yuk', 'merapat']</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>['pagi', 'istimewa', 'ndalem', 'maulana', 'yuk', 'rapat']</t>
         </is>
@@ -3239,10 +3629,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14627</v>
+        <v>29332</v>
       </c>
       <c r="C79" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3256,17 +3646,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['insya', 'allah', 'selama', 'pengajian', 'ramadan', 'kami', 'akan', 'mentweet', 'kutipan', 'pengajian', 'yang', 'beliau', 'sampaikan', 'tidak', 'ada', 'live']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>['insya', 'allah', 'pengajian', 'ramadhan', 'mentweet', 'kutipan', 'pengajian', 'beliau', 'live']</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['insya', 'allah', 'aji', 'ramadhan', 'mentweet', 'kutip', 'aji', 'beliau', 'live']</t>
+          <t>['insya', 'allah', 'pengajian', 'ramadan', 'mentweet', 'kutipan', 'pengajian', 'beliau', 'live']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['insya', 'allah', 'aji', 'ramadan', 'mentweet', 'kutip', 'aji', 'beliau', 'live']</t>
         </is>
       </c>
     </row>
@@ -3275,10 +3670,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14628</v>
+        <v>29333</v>
       </c>
       <c r="C80" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3292,15 +3687,20 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['membaca', 'alquran', 'tafsir', 'amp', 'hadis', 'syarahnya', 'bisa', 'dalam', 'keadaan', 'apapun', 'tapi', 'untuk', 'bisa', 'merasakan', 'keagungan', 'alquran']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>['membaca', 'alquran', 'tafsir', 'hadis', 'syarahnya', 'apapun', 'merasakan', 'keagungan', 'alquran']</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>['baca', 'alquran', 'tafsir', 'hadis', 'syarah', 'apa', 'rasa', 'agung', 'alquran']</t>
         </is>
@@ -3311,10 +3711,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14629</v>
+        <v>29334</v>
       </c>
       <c r="C81" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3328,15 +3728,20 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['yang', 'telah', 'pecah', 'umat', 'ini', 'memperbaikinya', 'sulit', 'sekali', 'maka', 'jangan', 'merusak', 'yang', 'masih', 'rukun', 'dan', 'bersatu']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>['pecah', 'umat', 'memperbaikinya', 'sulit', 'merusak', 'rukun', 'bersatu']</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>['pecah', 'umat', 'baik', 'sulit', 'rusak', 'rukun', 'satu']</t>
         </is>
@@ -3347,10 +3752,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14630</v>
+        <v>29335</v>
       </c>
       <c r="C82" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3364,15 +3769,20 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['rt', 'alhamdulillah', 'habibana']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'habibana']</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'habibana']</t>
         </is>
@@ -3383,10 +3793,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>14631</v>
+        <v>29336</v>
       </c>
       <c r="C83" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3400,17 +3810,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['salat', 'jumat', 'sebenarnya', 'salah', 'satu', 'media', 'untuk', 'membangun', 'persatuan', 'diantara', 'umat', 'islam', 'seperti', 'dijelaskan', 'dalam', 'ki']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>['sholat', 'jumat', 'salah', 'media', 'membangun', 'persatuan', 'umat', 'islam', 'ki']</t>
-        </is>
-      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['sholat', 'jumat', 'salah', 'media', 'bangun', 'satu', 'umat', 'islam', 'ki']</t>
+          <t>['salat', 'jumat', 'salah', 'media', 'membangun', 'persatuan', 'umat', 'islam', 'ki']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['salat', 'jumat', 'salah', 'media', 'bangun', 'satu', 'umat', 'islam', 'ki']</t>
         </is>
       </c>
     </row>
@@ -3419,10 +3834,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14632</v>
+        <v>29337</v>
       </c>
       <c r="C84" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3436,15 +3851,20 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['wawancara', 'hasil', 'riset', 'prof', 'tentang', 'oleh', 'radio', 'australia', 'dalam', 'bahasa', 'jerman']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>['wawancara', 'hasil', 'riset', 'prof', 'radio', 'australia', 'bahasa', 'jerman']</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>['wawancara', 'hasil', 'riset', 'prof', 'radio', 'australia', 'bahasa', 'jerman']</t>
         </is>
@@ -3455,10 +3875,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14633</v>
+        <v>29338</v>
       </c>
       <c r="C85" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3472,15 +3892,20 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['rt', 'onstage', 'selamat', 'beribadah', 'puasamohon', 'maaf', 'lahir', 'dan', 'batin', 'yang', 'saya', 'kagumi']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>['onstage', 'selamat', 'beribadah', 'puasamohon', 'maaf', 'lahir', 'batin', 'kagumi']</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>['onstage', 'selamat', 'ibadah', 'puasamohon', 'maaf', 'lahir', 'batin', 'kagum']</t>
         </is>
@@ -3491,10 +3916,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14634</v>
+        <v>29339</v>
       </c>
       <c r="C86" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3508,15 +3933,20 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['rt', 'pakaian', 'dan', 'atribut', 'bukanlah', 'suatu', 'label', 'yang', 'menentukan', 'status', 'seseorang', 'di', 'sisi', 'allah', 'yang', 'maha', 'melihat', 'lagi', 'maha', 'mengetahu']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>['pakaian', 'atribut', 'label', 'menentukan', 'status', 'sisi', 'allah', 'maha', 'maha', 'mengetahu']</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>['pakai', 'atribut', 'label', 'tentu', 'status', 'sisi', 'allah', 'maha', 'maha', 'tahu']</t>
         </is>
@@ -3527,10 +3957,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>14635</v>
+        <v>29340</v>
       </c>
       <c r="C87" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3544,17 +3974,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['rt', 'inna', 'lillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'sedih', 'sekali', 'mendengar', 'kabar', 'mbah', 'saleh', 'meninggal', 'masih', 'teringat', 'terakhir', 'kali', 'saya', 'dip']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'sedih', 'mendengar', 'kabar', 'mbah', 'sholeh', 'meninggal', 'kali', 'dip']</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'sedih', 'dengar', 'kabar', 'mbah', 'sholeh', 'tinggal', 'kali', 'dip']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'sedih', 'mendengar', 'kabar', 'mbah', 'saleh', 'meninggal', 'kali', 'dip']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'sedih', 'dengar', 'kabar', 'mbah', 'saleh', 'tinggal', 'kali', 'dip']</t>
         </is>
       </c>
     </row>
@@ -3563,10 +3998,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>14636</v>
+        <v>29341</v>
       </c>
       <c r="C88" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3580,17 +4015,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['rt', 'setelah', 'sebelumnya', 'maulana', 'ayah', 'sekarang', 'gliran', 'murabbi', 'ruhina', 'mbah', 'anwar', 'yang', 'juga', 'mnegaskn', 'pntingnya']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['stlh', 'sblmny', 'maulana', 'abah', 'skrng', 'gliran', 'murabbi', 'ruhina', 'mbah', 'anwar', 'jg', 'mnegaskn', 'pntingnya']</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['stlh', 'sblmny', 'maulana', 'abah', 'skrng', 'gliran', 'murabbi', 'ruhina', 'mbah', 'anwar', 'jg', 'mnegaskn', 'pntingnya']</t>
+          <t>['maulana', 'ayah', 'gliran', 'murabbi', 'ruhina', 'mbah', 'anwar', 'mnegaskn', 'pntingnya']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['maulana', 'ayah', 'gliran', 'murabbi', 'ruhina', 'mbah', 'anwar', 'mnegaskn', 'pntingnya']</t>
         </is>
       </c>
     </row>
@@ -3599,10 +4039,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>14637</v>
+        <v>29342</v>
       </c>
       <c r="C89" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3616,17 +4056,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['pengajian', 'di', 'kediaman', 'maulana', 'habib', 'maulana', 'habib', 'luthfi', 'akan', 'dimulai', 'besok', 'malam', 'sebagian', 'santri', 'dari', 'berbagai', 'dan']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['pengajian', 'kediaman', 'maulana', 'habib', 'maulana', 'habib', 'luthfi', 'besok', 'malam', 'santri', 'da']</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['aji', 'diam', 'maulana', 'habib', 'maulana', 'habib', 'luthfi', 'besok', 'malam', 'santri', 'da']</t>
+          <t>['pengajian', 'kediaman', 'maulana', 'habib', 'maulana', 'habib', 'luthfi', 'besok', 'malam', 'santri']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['aji', 'diam', 'maulana', 'habib', 'maulana', 'habib', 'luthfi', 'besok', 'malam', 'santri']</t>
         </is>
       </c>
     </row>
@@ -3635,10 +4080,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14638</v>
+        <v>29343</v>
       </c>
       <c r="C90" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3652,17 +4097,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'prof', 'dan', 'dayana']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['terimakasih', 'prof', 'dayana']</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['terimakasih', 'prof', 'dayana']</t>
+          <t>['terima, kasih', 'prof', 'dayana']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'prof', 'dayana']</t>
         </is>
       </c>
     </row>
@@ -3671,10 +4121,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14639</v>
+        <v>29344</v>
       </c>
       <c r="C91" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3688,15 +4138,20 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['website', 'resmi', 'jatman']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>['website', 'resmi', 'jatman']</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>['website', 'resmi', 'jatman']</t>
         </is>
@@ -3707,10 +4162,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14640</v>
+        <v>29345</v>
       </c>
       <c r="C92" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3724,15 +4179,20 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['rt', 'pakubung', 'habibana', 'menyambut', 'kedatangan', 'pak', 'presiden', 'di', 'acara', 'majlis', 'para', 'sufi', 'dunia']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>['pakubung', 'habibana', 'menyambut', 'kedatangan', 'presiden', 'acara', 'majlis', 'sufi', 'dunia']</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>['pakubung', 'habibana', 'sambut', 'datang', 'presiden', 'acara', 'majlis', 'sufi', 'dunia']</t>
         </is>
@@ -3743,10 +4203,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14641</v>
+        <v>29346</v>
       </c>
       <c r="C93" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3760,17 +4220,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['rt', 'ri', 'menteri', 'agama', 'mengingatkan', 'para', 'pimpinan', 'institut', 'agama', 'islam', 'negeri', 'institut, agama, islam, negeri', 'untuk', 'fokus', 'pada', 'pengembangan']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>['ri', 'menteri', 'agama', 'pimpinan', 'institut', 'agama', 'islam', 'negeri', 'iain', 'fokus', 'pengembangan']</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['ri', 'menteri', 'agama', 'pimpin', 'institut', 'agama', 'islam', 'negeri', 'iain', 'fokus', 'kembang']</t>
+          <t>['ri', 'menteri', 'agama', 'pimpinan', 'institut', 'agama', 'islam', 'negeri', 'institut, agama, islam, negeri', 'fokus', 'pengembangan']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['ri', 'menteri', 'agama', 'pimpin', 'institut', 'agama', 'islam', 'negeri', 'institut agama islam negeri', 'fokus', 'kembang']</t>
         </is>
       </c>
     </row>
@@ -3779,10 +4244,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14642</v>
+        <v>29347</v>
       </c>
       <c r="C94" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3796,15 +4261,20 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['rt', 'keragaman', 'indonesia', 'dirawat', 'oleh', 'nilainilai', 'agama', 'mengamalkan', 'ajaran', 'agama', 'hakikatnya', 'bermakna', 'menjaga', 'keindonesiaan']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>['keragaman', 'indonesia', 'dirawat', 'nilainilai', 'agama', 'mengamalkan', 'ajaran', 'agama', 'hakikatnya', 'bermakna', 'menjaga', 'keindonesiaan']</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>['ragam', 'indonesia', 'rawat', 'nilainilai', 'agama', 'amal', 'ajar', 'agama', 'hakikat', 'makna', 'jaga', 'indonesia']</t>
         </is>
@@ -3815,10 +4285,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14643</v>
+        <v>29348</v>
       </c>
       <c r="C95" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3832,17 +4302,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'pak', 'ya, iyalah', 'pak', 'menteri', 'pak', 'dan', 'segenap', 'yang', 'hadir', 'di', 'muk']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>['yai', 'menteri', 'segenap', 'hadir', 'muk']</t>
-        </is>
-      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['yai', 'menteri', 'segenap', 'hadir', 'muk']</t>
+          <t>['ya, iyalah', 'menteri', 'segenap', 'hadir', 'muk']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['ya iya', 'menteri', 'segenap', 'hadir', 'muk']</t>
         </is>
       </c>
     </row>
@@ -3851,10 +4326,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14644</v>
+        <v>29349</v>
       </c>
       <c r="C96" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3868,15 +4343,20 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['sesi', 'ke', 'international', 'seminar', 'on', 'imam', 'alghazali', 'hotel', 'borobudur', 'jakarta', 'januari']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>['sesi', 'international', 'seminar', 'on', 'imam', 'alghazali', 'hotel', 'borobudur', 'jakarta', 'januari']</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>['sesi', 'international', 'seminar', 'on', 'imam', 'alghazali', 'hotel', 'borobudur', 'jakarta', 'januari']</t>
         </is>
@@ -3887,10 +4367,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14645</v>
+        <v>29350</v>
       </c>
       <c r="C97" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3904,17 +4384,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['rt', 'yang', 'belum', 'bisa', 'hadir', 'di', 'pekalongan', 'bisa', 'simak', 'televisi', 'nusantara', 'dihadiri', 'bapak', 'dan']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['hadir', 'pekalongan', 'simak', 'tv', 'nusantara', 'dihadiri']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['hadir', 'kalong', 'simak', 'tv', 'nusantara', 'hadir']</t>
+          <t>['hadir', 'pekalongan', 'simak', 'televisi', 'nusantara', 'dihadiri']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['hadir', 'kalong', 'simak', 'televisi', 'nusantara', 'hadir']</t>
         </is>
       </c>
     </row>
@@ -3923,10 +4408,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14646</v>
+        <v>29351</v>
       </c>
       <c r="C98" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3940,15 +4425,20 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['pawai', 'merah', 'putih', 'menjelang', 'pembukaan', 'muktamar', 'jamiyah', 'thoriqoh', 'almuktabarah', 'alnahdhiyah']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>['pawai', 'merah', 'putih', 'menjelang', 'pembukaan', 'muktamar', 'jamiyah', 'thoriqoh', 'almuktabarah', 'alnahdhiyah']</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>['pawai', 'merah', 'putih', 'jelang', 'buka', 'muktamar', 'jamiyah', 'thoriqoh', 'almuktabarah', 'alnahdhiyah']</t>
         </is>
